--- a/public/update- bacaru.xlsx
+++ b/public/update- bacaru.xlsx
@@ -4101,7 +4101,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <color rgb="FF93B379"/>
       <name val="Source Code Pro"/>
       <family val="3"/>
@@ -17375,7 +17375,7 @@
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
